--- a/Documents/Phase de Lancement/Planning_Des_Phases.xlsx
+++ b/Documents/Phase de Lancement/Planning_Des_Phases.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="28395" windowHeight="12780"/>
@@ -209,8 +209,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -526,6 +526,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -604,6 +609,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -638,6 +644,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -813,32 +820,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" customWidth="1"/>
     <col min="6" max="6" width="33.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="19.5">
+    <row r="2" spans="2:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="D2" s="23" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="23"/>
       <c r="F2" s="23"/>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="33" t="s">
         <v>0</v>
       </c>
@@ -859,7 +866,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="32" t="s">
         <v>1</v>
       </c>
@@ -880,7 +887,7 @@
         <v>24.25</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="31" t="s">
         <v>14</v>
       </c>
@@ -901,7 +908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="25" t="s">
         <v>26</v>
       </c>
@@ -922,7 +929,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="120">
+    <row r="7" spans="2:8" ht="120" x14ac:dyDescent="0.25">
       <c r="B7" s="26" t="s">
         <v>41</v>
       </c>
@@ -943,7 +950,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:8">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="34" t="s">
         <v>21</v>
       </c>
@@ -953,20 +960,20 @@
       <c r="D8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>16</v>
+      <c r="E8" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>15</v>
+      <c r="G8" s="13" t="s">
+        <v>16</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="26"/>
       <c r="C9" s="9" t="s">
         <v>3</v>
@@ -985,7 +992,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:8">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="26"/>
       <c r="C10" s="9" t="s">
         <v>4</v>
@@ -1006,7 +1013,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="26"/>
       <c r="C11" s="2" t="s">
         <v>5</v>
@@ -1027,7 +1034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:8">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="26"/>
       <c r="C12" s="10" t="s">
         <v>23</v>
@@ -1048,7 +1055,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="2:8" ht="45">
+    <row r="13" spans="2:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="26"/>
       <c r="C13" s="11" t="s">
         <v>19</v>
@@ -1067,7 +1074,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:8" ht="30">
+    <row r="14" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="26"/>
       <c r="C14" s="12" t="s">
         <v>20</v>
@@ -1086,7 +1093,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:8" ht="30">
+    <row r="15" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="26"/>
       <c r="C15" s="12" t="s">
         <v>22</v>
@@ -1122,24 +1129,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documents/Phase de Lancement/Planning_Des_Phases.xlsx
+++ b/Documents/Phase de Lancement/Planning_Des_Phases.xlsx
@@ -824,7 +824,7 @@
   <dimension ref="B2:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -896,7 +896,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5" s="6">
         <v>3</v>
